--- a/tmp/demo.xlsx
+++ b/tmp/demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\github\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C0CFEF-8F6F-477D-9872-75557A33201C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C1C745-8084-4F11-8F52-15EE89C2ED0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
